--- a/_GFF2017進捗管理表原紙(マスタ).xlsx
+++ b/_GFF2017進捗管理表原紙(マスタ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大綱スケジュール" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="138">
   <si>
     <t>大綱スケジュール</t>
     <rPh sb="0" eb="2">
@@ -1206,6 +1206,19 @@
   </si>
   <si>
     <t>ビデオ制作・応募準備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1680,15 +1693,6 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1710,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6093,7 +6106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6121,26 +6134,26 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="52">
+      <c r="G5" s="58">
         <v>10</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58">
         <v>11</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52">
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58">
         <v>12</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52">
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58">
         <v>1</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
@@ -6534,8 +6547,8 @@
   </sheetPr>
   <dimension ref="B3:AP75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -6562,48 +6575,48 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="52">
+      <c r="M5" s="58">
         <v>11</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -9505,7 +9518,7 @@
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G58" s="50">
         <v>42684</v>
@@ -9954,7 +9967,7 @@
   </sheetPr>
   <dimension ref="B3:AQ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
@@ -9982,49 +9995,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="52">
+      <c r="M5" s="58">
         <v>12</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -11813,7 +11826,7 @@
       <c r="AO35" s="7"/>
       <c r="AP35" s="16"/>
     </row>
-    <row r="36" spans="3:42" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:42" ht="31.5" x14ac:dyDescent="0.15">
       <c r="C36" s="5"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
@@ -11865,7 +11878,7 @@
       <c r="AO36" s="7"/>
       <c r="AP36" s="16"/>
     </row>
-    <row r="37" spans="3:42" ht="63" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:42" ht="31.5" x14ac:dyDescent="0.15">
       <c r="C37" s="5"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
@@ -13403,7 +13416,7 @@
   </sheetPr>
   <dimension ref="B3:AQ72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
@@ -13431,49 +13444,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="52">
+      <c r="M5" s="58">
         <v>1</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -13791,37 +13804,37 @@
       <c r="L8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
     </row>
     <row r="9" spans="2:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5"/>
@@ -13846,37 +13859,37 @@
       <c r="L9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
     </row>
     <row r="10" spans="2:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5"/>
@@ -13901,37 +13914,37 @@
       <c r="L10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
     </row>
     <row r="11" spans="2:43" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
@@ -13954,37 +13967,37 @@
       <c r="L11" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="58"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="55"/>
     </row>
     <row r="12" spans="2:43" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5"/>
@@ -14007,37 +14020,37 @@
       <c r="L12" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
     </row>
     <row r="13" spans="2:43" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5"/>
@@ -14060,37 +14073,37 @@
       <c r="L13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
     </row>
     <row r="14" spans="2:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5"/>
@@ -14113,37 +14126,37 @@
       <c r="L14" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="58"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="55"/>
     </row>
     <row r="15" spans="2:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
@@ -14166,37 +14179,37 @@
       <c r="L15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
     </row>
     <row r="16" spans="2:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
@@ -14219,37 +14232,37 @@
       <c r="L16" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
     </row>
     <row r="17" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5"/>
@@ -14272,37 +14285,37 @@
       <c r="L17" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
     </row>
     <row r="18" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
@@ -14325,37 +14338,37 @@
       <c r="L18" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="53"/>
+      <c r="AK18" s="53"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
     </row>
     <row r="19" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5"/>
@@ -14378,37 +14391,37 @@
       <c r="L19" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
     </row>
     <row r="20" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="5"/>
@@ -14433,37 +14446,37 @@
       <c r="L20" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
     </row>
     <row r="21" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="5"/>
@@ -14488,37 +14501,37 @@
       <c r="L21" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
     </row>
     <row r="22" spans="3:43" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5"/>
@@ -14543,37 +14556,37 @@
       <c r="L22" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="58"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="55"/>
     </row>
     <row r="23" spans="3:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="5"/>
@@ -14598,37 +14611,37 @@
       <c r="L23" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="58"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="55"/>
     </row>
     <row r="24" spans="3:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="5"/>
@@ -14653,37 +14666,37 @@
       <c r="L24" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="58"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="53"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="54"/>
+      <c r="AQ24" s="55"/>
     </row>
     <row r="25" spans="3:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="5"/>
@@ -14708,37 +14721,37 @@
       <c r="L25" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="58"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="55"/>
     </row>
     <row r="26" spans="3:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5"/>
@@ -14763,37 +14776,37 @@
       <c r="L26" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="58"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="55"/>
     </row>
     <row r="27" spans="3:43" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="5"/>
@@ -14818,37 +14831,37 @@
       <c r="L27" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="58"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="55"/>
     </row>
     <row r="28" spans="3:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="5"/>
@@ -14871,37 +14884,37 @@
       <c r="L28" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="58"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="55"/>
     </row>
     <row r="29" spans="3:43" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="5"/>
@@ -14924,37 +14937,37 @@
       <c r="L29" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="58"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="55"/>
     </row>
     <row r="30" spans="3:43" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
@@ -14977,37 +14990,37 @@
       <c r="L30" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="58"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="55"/>
     </row>
     <row r="31" spans="3:43" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
@@ -15030,37 +15043,37 @@
       <c r="L31" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="58"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="55"/>
     </row>
     <row r="32" spans="3:43" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="5"/>
@@ -15083,37 +15096,37 @@
       <c r="L32" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="58"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="55"/>
     </row>
     <row r="33" spans="3:43" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
@@ -15136,37 +15149,37 @@
       <c r="L33" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="58"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="55"/>
     </row>
     <row r="34" spans="3:43" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5"/>
@@ -15189,37 +15202,37 @@
       <c r="L34" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="55"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="58"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="55"/>
     </row>
     <row r="35" spans="3:43" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5"/>
@@ -15242,39 +15255,39 @@
       <c r="L35" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="58"/>
-    </row>
-    <row r="36" spans="3:43" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="55"/>
+    </row>
+    <row r="36" spans="3:43" ht="31.5" x14ac:dyDescent="0.15">
       <c r="C36" s="5"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
@@ -15295,39 +15308,39 @@
       <c r="L36" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="58"/>
-    </row>
-    <row r="37" spans="3:43" ht="63" x14ac:dyDescent="0.15">
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="54"/>
+      <c r="AQ36" s="55"/>
+    </row>
+    <row r="37" spans="3:43" ht="31.5" x14ac:dyDescent="0.15">
       <c r="C37" s="5"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
@@ -15348,37 +15361,37 @@
       <c r="L37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="58"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="55"/>
     </row>
     <row r="38" spans="3:43" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5"/>
@@ -15401,37 +15414,37 @@
       <c r="L38" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M38" s="55"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="58"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="55"/>
     </row>
     <row r="39" spans="3:43" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5"/>
@@ -15454,37 +15467,37 @@
       <c r="L39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="58"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="55"/>
     </row>
     <row r="40" spans="3:43" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5"/>
@@ -15507,37 +15520,37 @@
       <c r="L40" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M40" s="55"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="56"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="56"/>
-      <c r="AO40" s="56"/>
-      <c r="AP40" s="57"/>
-      <c r="AQ40" s="58"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="53"/>
+      <c r="AI40" s="53"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="53"/>
+      <c r="AM40" s="53"/>
+      <c r="AN40" s="53"/>
+      <c r="AO40" s="53"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="55"/>
     </row>
     <row r="41" spans="3:43" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5"/>
@@ -15560,37 +15573,37 @@
       <c r="L41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="56"/>
-      <c r="AJ41" s="56"/>
-      <c r="AK41" s="56"/>
-      <c r="AL41" s="56"/>
-      <c r="AM41" s="56"/>
-      <c r="AN41" s="56"/>
-      <c r="AO41" s="56"/>
-      <c r="AP41" s="57"/>
-      <c r="AQ41" s="58"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="55"/>
     </row>
     <row r="42" spans="3:43" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5"/>
@@ -15619,37 +15632,37 @@
       <c r="L42" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="55"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
-      <c r="AC42" s="56"/>
-      <c r="AD42" s="56"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="56"/>
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="56"/>
-      <c r="AL42" s="56"/>
-      <c r="AM42" s="56"/>
-      <c r="AN42" s="56"/>
-      <c r="AO42" s="56"/>
-      <c r="AP42" s="57"/>
-      <c r="AQ42" s="58"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="55"/>
     </row>
     <row r="43" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5"/>
@@ -15672,37 +15685,37 @@
       <c r="L43" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="55"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="56"/>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="57"/>
-      <c r="AQ43" s="58"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="55"/>
     </row>
     <row r="44" spans="3:43" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5"/>
@@ -15725,37 +15738,37 @@
       <c r="L44" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="56"/>
-      <c r="AL44" s="56"/>
-      <c r="AM44" s="56"/>
-      <c r="AN44" s="56"/>
-      <c r="AO44" s="56"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="58"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="53"/>
+      <c r="AL44" s="53"/>
+      <c r="AM44" s="53"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="55"/>
     </row>
     <row r="45" spans="3:43" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
@@ -15778,37 +15791,37 @@
       <c r="L45" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M45" s="55"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="56"/>
-      <c r="AL45" s="56"/>
-      <c r="AM45" s="56"/>
-      <c r="AN45" s="56"/>
-      <c r="AO45" s="56"/>
-      <c r="AP45" s="57"/>
-      <c r="AQ45" s="58"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="55"/>
     </row>
     <row r="46" spans="3:43" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
@@ -15831,37 +15844,37 @@
       <c r="L46" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M46" s="55"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="56"/>
-      <c r="AP46" s="57"/>
-      <c r="AQ46" s="58"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="53"/>
+      <c r="AN46" s="53"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="55"/>
     </row>
     <row r="47" spans="3:43" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="8"/>
@@ -15886,37 +15899,37 @@
       <c r="L47" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M47" s="59"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="60"/>
-      <c r="AC47" s="60"/>
-      <c r="AD47" s="60"/>
-      <c r="AE47" s="60"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="60"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="60"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="60"/>
-      <c r="AO47" s="60"/>
-      <c r="AP47" s="58"/>
-      <c r="AQ47" s="58"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
+      <c r="AB47" s="57"/>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="57"/>
+      <c r="AE47" s="57"/>
+      <c r="AF47" s="57"/>
+      <c r="AG47" s="57"/>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="57"/>
+      <c r="AJ47" s="57"/>
+      <c r="AK47" s="57"/>
+      <c r="AL47" s="57"/>
+      <c r="AM47" s="57"/>
+      <c r="AN47" s="57"/>
+      <c r="AO47" s="57"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
     </row>
     <row r="48" spans="3:43" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
@@ -15939,37 +15952,37 @@
       <c r="L48" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M48" s="55"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="58"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="54"/>
+      <c r="AQ48" s="55"/>
     </row>
     <row r="49" spans="3:43" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5"/>
@@ -15990,37 +16003,37 @@
       <c r="L49" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="55"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="58"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="54"/>
+      <c r="AQ49" s="55"/>
     </row>
     <row r="50" spans="3:43" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5"/>
@@ -16041,37 +16054,37 @@
       <c r="L50" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M50" s="55"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="56"/>
-      <c r="AN50" s="56"/>
-      <c r="AO50" s="56"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="58"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="53"/>
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="54"/>
+      <c r="AQ50" s="55"/>
     </row>
     <row r="51" spans="3:43" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="8"/>
@@ -16090,37 +16103,37 @@
       <c r="L51" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="M51" s="59"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="60"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="60"/>
-      <c r="AA51" s="60"/>
-      <c r="AB51" s="60"/>
-      <c r="AC51" s="60"/>
-      <c r="AD51" s="60"/>
-      <c r="AE51" s="60"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="60"/>
-      <c r="AH51" s="60"/>
-      <c r="AI51" s="60"/>
-      <c r="AJ51" s="60"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="60"/>
-      <c r="AN51" s="60"/>
-      <c r="AO51" s="60"/>
-      <c r="AP51" s="58"/>
-      <c r="AQ51" s="58"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="57"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="57"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="57"/>
+      <c r="AJ51" s="57"/>
+      <c r="AK51" s="57"/>
+      <c r="AL51" s="57"/>
+      <c r="AM51" s="57"/>
+      <c r="AN51" s="57"/>
+      <c r="AO51" s="57"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
     </row>
     <row r="52" spans="3:43" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5"/>
@@ -16137,37 +16150,37 @@
       <c r="L52" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="55"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="58"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="53"/>
+      <c r="AE52" s="53"/>
+      <c r="AF52" s="53"/>
+      <c r="AG52" s="53"/>
+      <c r="AH52" s="53"/>
+      <c r="AI52" s="53"/>
+      <c r="AJ52" s="53"/>
+      <c r="AK52" s="53"/>
+      <c r="AL52" s="53"/>
+      <c r="AM52" s="53"/>
+      <c r="AN52" s="53"/>
+      <c r="AO52" s="53"/>
+      <c r="AP52" s="54"/>
+      <c r="AQ52" s="55"/>
     </row>
     <row r="53" spans="3:43" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5"/>
@@ -16190,37 +16203,37 @@
       <c r="L53" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M53" s="55"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="58"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="53"/>
+      <c r="AA53" s="53"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="53"/>
+      <c r="AD53" s="53"/>
+      <c r="AE53" s="53"/>
+      <c r="AF53" s="53"/>
+      <c r="AG53" s="53"/>
+      <c r="AH53" s="53"/>
+      <c r="AI53" s="53"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="53"/>
+      <c r="AL53" s="53"/>
+      <c r="AM53" s="53"/>
+      <c r="AN53" s="53"/>
+      <c r="AO53" s="53"/>
+      <c r="AP53" s="54"/>
+      <c r="AQ53" s="55"/>
     </row>
     <row r="54" spans="3:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5"/>
@@ -16245,37 +16258,37 @@
       <c r="L54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M54" s="55"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="58"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="53"/>
+      <c r="AG54" s="53"/>
+      <c r="AH54" s="53"/>
+      <c r="AI54" s="53"/>
+      <c r="AJ54" s="53"/>
+      <c r="AK54" s="53"/>
+      <c r="AL54" s="53"/>
+      <c r="AM54" s="53"/>
+      <c r="AN54" s="53"/>
+      <c r="AO54" s="53"/>
+      <c r="AP54" s="54"/>
+      <c r="AQ54" s="55"/>
     </row>
     <row r="55" spans="3:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5"/>
@@ -16296,37 +16309,37 @@
       <c r="L55" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M55" s="55"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="58"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+      <c r="AE55" s="53"/>
+      <c r="AF55" s="53"/>
+      <c r="AG55" s="53"/>
+      <c r="AH55" s="53"/>
+      <c r="AI55" s="53"/>
+      <c r="AJ55" s="53"/>
+      <c r="AK55" s="53"/>
+      <c r="AL55" s="53"/>
+      <c r="AM55" s="53"/>
+      <c r="AN55" s="53"/>
+      <c r="AO55" s="53"/>
+      <c r="AP55" s="54"/>
+      <c r="AQ55" s="55"/>
     </row>
     <row r="56" spans="3:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="5"/>
@@ -16347,37 +16360,37 @@
       <c r="L56" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M56" s="55"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-      <c r="AH56" s="56"/>
-      <c r="AI56" s="56"/>
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="56"/>
-      <c r="AL56" s="56"/>
-      <c r="AM56" s="56"/>
-      <c r="AN56" s="56"/>
-      <c r="AO56" s="56"/>
-      <c r="AP56" s="57"/>
-      <c r="AQ56" s="58"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="53"/>
+      <c r="AE56" s="53"/>
+      <c r="AF56" s="53"/>
+      <c r="AG56" s="53"/>
+      <c r="AH56" s="53"/>
+      <c r="AI56" s="53"/>
+      <c r="AJ56" s="53"/>
+      <c r="AK56" s="53"/>
+      <c r="AL56" s="53"/>
+      <c r="AM56" s="53"/>
+      <c r="AN56" s="53"/>
+      <c r="AO56" s="53"/>
+      <c r="AP56" s="54"/>
+      <c r="AQ56" s="55"/>
     </row>
     <row r="57" spans="3:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="5"/>
@@ -16398,37 +16411,37 @@
       <c r="L57" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M57" s="55"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="56"/>
-      <c r="AI57" s="56"/>
-      <c r="AJ57" s="56"/>
-      <c r="AK57" s="56"/>
-      <c r="AL57" s="56"/>
-      <c r="AM57" s="56"/>
-      <c r="AN57" s="56"/>
-      <c r="AO57" s="56"/>
-      <c r="AP57" s="57"/>
-      <c r="AQ57" s="58"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+      <c r="AE57" s="53"/>
+      <c r="AF57" s="53"/>
+      <c r="AG57" s="53"/>
+      <c r="AH57" s="53"/>
+      <c r="AI57" s="53"/>
+      <c r="AJ57" s="53"/>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="53"/>
+      <c r="AM57" s="53"/>
+      <c r="AN57" s="53"/>
+      <c r="AO57" s="53"/>
+      <c r="AP57" s="54"/>
+      <c r="AQ57" s="55"/>
     </row>
     <row r="58" spans="3:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5"/>
@@ -16451,37 +16464,37 @@
       <c r="L58" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-      <c r="AH58" s="56"/>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="56"/>
-      <c r="AL58" s="56"/>
-      <c r="AM58" s="56"/>
-      <c r="AN58" s="56"/>
-      <c r="AO58" s="56"/>
-      <c r="AP58" s="57"/>
-      <c r="AQ58" s="58"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+      <c r="AE58" s="53"/>
+      <c r="AF58" s="53"/>
+      <c r="AG58" s="53"/>
+      <c r="AH58" s="53"/>
+      <c r="AI58" s="53"/>
+      <c r="AJ58" s="53"/>
+      <c r="AK58" s="53"/>
+      <c r="AL58" s="53"/>
+      <c r="AM58" s="53"/>
+      <c r="AN58" s="53"/>
+      <c r="AO58" s="53"/>
+      <c r="AP58" s="54"/>
+      <c r="AQ58" s="55"/>
     </row>
     <row r="59" spans="3:43" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5"/>
@@ -16504,37 +16517,37 @@
       <c r="L59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M59" s="55"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="56"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-      <c r="AH59" s="56"/>
-      <c r="AI59" s="56"/>
-      <c r="AJ59" s="56"/>
-      <c r="AK59" s="56"/>
-      <c r="AL59" s="56"/>
-      <c r="AM59" s="56"/>
-      <c r="AN59" s="56"/>
-      <c r="AO59" s="56"/>
-      <c r="AP59" s="57"/>
-      <c r="AQ59" s="58"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="53"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="53"/>
+      <c r="AJ59" s="53"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="53"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="54"/>
+      <c r="AQ59" s="55"/>
     </row>
     <row r="60" spans="3:43" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5"/>
@@ -16557,37 +16570,37 @@
       <c r="L60" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M60" s="55"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="56"/>
-      <c r="AL60" s="56"/>
-      <c r="AM60" s="56"/>
-      <c r="AN60" s="56"/>
-      <c r="AO60" s="56"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="58"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+      <c r="AE60" s="53"/>
+      <c r="AF60" s="53"/>
+      <c r="AG60" s="53"/>
+      <c r="AH60" s="53"/>
+      <c r="AI60" s="53"/>
+      <c r="AJ60" s="53"/>
+      <c r="AK60" s="53"/>
+      <c r="AL60" s="53"/>
+      <c r="AM60" s="53"/>
+      <c r="AN60" s="53"/>
+      <c r="AO60" s="53"/>
+      <c r="AP60" s="54"/>
+      <c r="AQ60" s="55"/>
     </row>
     <row r="61" spans="3:43" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="8"/>
@@ -16612,37 +16625,37 @@
       <c r="L61" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M61" s="59"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="60"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="60"/>
-      <c r="AM61" s="60"/>
-      <c r="AN61" s="60"/>
-      <c r="AO61" s="60"/>
-      <c r="AP61" s="58"/>
-      <c r="AQ61" s="58"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="57"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="57"/>
+      <c r="AE61" s="57"/>
+      <c r="AF61" s="57"/>
+      <c r="AG61" s="57"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="57"/>
+      <c r="AL61" s="57"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="57"/>
+      <c r="AO61" s="57"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
     </row>
     <row r="62" spans="3:43" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="8"/>
@@ -16667,37 +16680,37 @@
       <c r="L62" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M62" s="59"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
-      <c r="V62" s="60"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="60"/>
-      <c r="AA62" s="60"/>
-      <c r="AB62" s="60"/>
-      <c r="AC62" s="60"/>
-      <c r="AD62" s="60"/>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="60"/>
-      <c r="AJ62" s="60"/>
-      <c r="AK62" s="60"/>
-      <c r="AL62" s="60"/>
-      <c r="AM62" s="60"/>
-      <c r="AN62" s="60"/>
-      <c r="AO62" s="60"/>
-      <c r="AP62" s="58"/>
-      <c r="AQ62" s="58"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="57"/>
+      <c r="AE62" s="57"/>
+      <c r="AF62" s="57"/>
+      <c r="AG62" s="57"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="57"/>
+      <c r="AJ62" s="57"/>
+      <c r="AK62" s="57"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="57"/>
+      <c r="AN62" s="57"/>
+      <c r="AO62" s="57"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
     </row>
     <row r="63" spans="3:43" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="8"/>
@@ -16722,37 +16735,37 @@
       <c r="L63" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M63" s="59"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
-      <c r="AJ63" s="60"/>
-      <c r="AK63" s="60"/>
-      <c r="AL63" s="60"/>
-      <c r="AM63" s="60"/>
-      <c r="AN63" s="60"/>
-      <c r="AO63" s="60"/>
-      <c r="AP63" s="58"/>
-      <c r="AQ63" s="58"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="57"/>
+      <c r="AF63" s="57"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="57"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="57"/>
+      <c r="AK63" s="57"/>
+      <c r="AL63" s="57"/>
+      <c r="AM63" s="57"/>
+      <c r="AN63" s="57"/>
+      <c r="AO63" s="57"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
     </row>
     <row r="64" spans="3:43" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="8"/>
@@ -16775,37 +16788,37 @@
       <c r="L64" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M64" s="59"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="60"/>
-      <c r="AB64" s="60"/>
-      <c r="AC64" s="60"/>
-      <c r="AD64" s="60"/>
-      <c r="AE64" s="60"/>
-      <c r="AF64" s="60"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="60"/>
-      <c r="AI64" s="60"/>
-      <c r="AJ64" s="60"/>
-      <c r="AK64" s="60"/>
-      <c r="AL64" s="60"/>
-      <c r="AM64" s="60"/>
-      <c r="AN64" s="60"/>
-      <c r="AO64" s="60"/>
-      <c r="AP64" s="58"/>
-      <c r="AQ64" s="58"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="57"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="57"/>
+      <c r="AK64" s="57"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="57"/>
+      <c r="AN64" s="57"/>
+      <c r="AO64" s="57"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
     </row>
     <row r="65" spans="3:43" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="8"/>
@@ -16828,37 +16841,37 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="41"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="60"/>
-      <c r="V65" s="60"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="60"/>
-      <c r="Z65" s="60"/>
-      <c r="AA65" s="60"/>
-      <c r="AB65" s="60"/>
-      <c r="AC65" s="60"/>
-      <c r="AD65" s="60"/>
-      <c r="AE65" s="60"/>
-      <c r="AF65" s="60"/>
-      <c r="AG65" s="60"/>
-      <c r="AH65" s="60"/>
-      <c r="AI65" s="60"/>
-      <c r="AJ65" s="60"/>
-      <c r="AK65" s="60"/>
-      <c r="AL65" s="60"/>
-      <c r="AM65" s="60"/>
-      <c r="AN65" s="60"/>
-      <c r="AO65" s="60"/>
-      <c r="AP65" s="58"/>
-      <c r="AQ65" s="58"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="57"/>
+      <c r="AB65" s="57"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="57"/>
+      <c r="AE65" s="57"/>
+      <c r="AF65" s="57"/>
+      <c r="AG65" s="57"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="57"/>
+      <c r="AJ65" s="57"/>
+      <c r="AK65" s="57"/>
+      <c r="AL65" s="57"/>
+      <c r="AM65" s="57"/>
+      <c r="AN65" s="57"/>
+      <c r="AO65" s="57"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
     </row>
     <row r="66" spans="3:43" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="41" t="s">
@@ -16875,37 +16888,37 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="41"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="60"/>
-      <c r="AB66" s="60"/>
-      <c r="AC66" s="60"/>
-      <c r="AD66" s="60"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="60"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="60"/>
-      <c r="AJ66" s="60"/>
-      <c r="AK66" s="60"/>
-      <c r="AL66" s="60"/>
-      <c r="AM66" s="60"/>
-      <c r="AN66" s="60"/>
-      <c r="AO66" s="60"/>
-      <c r="AP66" s="58"/>
-      <c r="AQ66" s="58"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="57"/>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="57"/>
+      <c r="AC66" s="57"/>
+      <c r="AD66" s="57"/>
+      <c r="AE66" s="57"/>
+      <c r="AF66" s="57"/>
+      <c r="AG66" s="57"/>
+      <c r="AH66" s="57"/>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="57"/>
+      <c r="AN66" s="57"/>
+      <c r="AO66" s="57"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
     </row>
     <row r="68" spans="3:43" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11" t="s">

--- a/_GFF2017進捗管理表原紙(マスタ).xlsx
+++ b/_GFF2017進捗管理表原紙(マスタ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="大綱スケジュール" sheetId="1" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1720,6 +1720,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3877,6 +3880,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>394608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23050500" y="35269714"/>
+          <a:ext cx="1823357" cy="13608"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5690,6 +5740,100 @@
         <a:xfrm>
           <a:off x="11430000" y="47278637"/>
           <a:ext cx="4014107" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="37392428"/>
+          <a:ext cx="3656611" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>258535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18056678" y="38059178"/>
+          <a:ext cx="2952751" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6547,8 +6691,8 @@
   </sheetPr>
   <dimension ref="B3:AP75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView showGridLines="0" topLeftCell="E47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -9174,8 +9318,12 @@
       <c r="F51" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="G51" s="61">
+        <v>42700</v>
+      </c>
+      <c r="H51" s="61">
+        <v>42714</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -9220,8 +9368,12 @@
       <c r="F52" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="50">
+        <v>42722</v>
+      </c>
+      <c r="H52" s="50">
+        <v>42729</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -9967,8 +10119,8 @@
   </sheetPr>
   <dimension ref="B3:AQ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM52" sqref="AM52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -12619,8 +12771,12 @@
       <c r="F51" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="G51" s="61">
+        <v>42700</v>
+      </c>
+      <c r="H51" s="61">
+        <v>42714</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -12665,8 +12821,12 @@
       <c r="F52" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="50">
+        <v>42722</v>
+      </c>
+      <c r="H52" s="50">
+        <v>42729</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>

--- a/_GFF2017進捗管理表原紙(マスタ).xlsx
+++ b/_GFF2017進捗管理表原紙(マスタ).xlsx
@@ -1739,6 +1739,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,9 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2547,16 +2547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21029</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361208</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>235032</xdr:rowOff>
+      <xdr:rowOff>244928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>235032</xdr:rowOff>
+      <xdr:rowOff>248640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2564,9 +2564,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20853565" y="47574282"/>
-          <a:ext cx="4054929" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="17152422" y="64525071"/>
+          <a:ext cx="7707828" cy="3712"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6605,6 +6605,56 @@
         <a:xfrm>
           <a:off x="17213035" y="54687107"/>
           <a:ext cx="3320143" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17185821" y="64851643"/>
+          <a:ext cx="5102679" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9407,26 +9457,26 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="58">
+      <c r="G5" s="59">
         <v>10</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59">
         <v>11</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59">
         <v>12</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58">
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59">
         <v>1</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
@@ -9820,8 +9870,8 @@
   </sheetPr>
   <dimension ref="B3:AP97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS83" sqref="AS83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -9848,48 +9898,48 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>11</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -13572,7 +13622,7 @@
       <c r="G73" s="50">
         <v>42684</v>
       </c>
-      <c r="H73" s="61">
+      <c r="H73" s="58">
         <v>42709</v>
       </c>
       <c r="I73" s="8"/>
@@ -13622,7 +13672,7 @@
       <c r="G74" s="50">
         <v>42684</v>
       </c>
-      <c r="H74" s="61">
+      <c r="H74" s="58">
         <v>42709</v>
       </c>
       <c r="I74" s="5"/>
@@ -14199,8 +14249,12 @@
       <c r="H85" s="50">
         <v>42729</v>
       </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="I85" s="58">
+        <v>42694</v>
+      </c>
+      <c r="J85" s="58">
+        <v>42698</v>
+      </c>
       <c r="K85" s="8"/>
       <c r="L85" s="41" t="s">
         <v>69</v>
@@ -14402,49 +14456,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>12</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -18987,49 +19041,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>1</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">

--- a/_GFF2017進捗管理表原紙(マスタ).xlsx
+++ b/_GFF2017進捗管理表原紙(マスタ).xlsx
@@ -1739,6 +1739,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,9 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9407,26 +9407,26 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="58">
+      <c r="G5" s="59">
         <v>10</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59">
         <v>11</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59">
         <v>12</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58">
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59">
         <v>1</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
@@ -9820,8 +9820,8 @@
   </sheetPr>
   <dimension ref="B3:AP97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -9848,48 +9848,48 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>11</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -13572,7 +13572,7 @@
       <c r="G73" s="50">
         <v>42684</v>
       </c>
-      <c r="H73" s="61">
+      <c r="H73" s="58">
         <v>42709</v>
       </c>
       <c r="I73" s="8"/>
@@ -13622,7 +13622,7 @@
       <c r="G74" s="50">
         <v>42684</v>
       </c>
-      <c r="H74" s="61">
+      <c r="H74" s="58">
         <v>42709</v>
       </c>
       <c r="I74" s="5"/>
@@ -13731,7 +13731,7 @@
         <v>42684</v>
       </c>
       <c r="J76" s="50">
-        <v>42699</v>
+        <v>42694</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="40" t="s">
@@ -13831,8 +13831,8 @@
       <c r="H78" s="50">
         <v>42724</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
       <c r="K78" s="5"/>
       <c r="L78" s="40" t="s">
         <v>43</v>
@@ -13881,8 +13881,12 @@
       <c r="H79" s="50">
         <v>42724</v>
       </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="I79" s="50">
+        <v>42684</v>
+      </c>
+      <c r="J79" s="50">
+        <v>42694</v>
+      </c>
       <c r="K79" s="5"/>
       <c r="L79" s="40" t="s">
         <v>43</v>
@@ -13933,7 +13937,9 @@
       <c r="H80" s="50">
         <v>42694</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="50">
+        <v>42684</v>
+      </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="40" t="s">
@@ -14199,7 +14205,9 @@
       <c r="H85" s="50">
         <v>42729</v>
       </c>
-      <c r="I85" s="8"/>
+      <c r="I85" s="58">
+        <v>42694</v>
+      </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="41" t="s">
@@ -14402,49 +14410,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>12</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
@@ -18987,49 +18995,49 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="58">
+      <c r="M5" s="59">
         <v>1</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">

--- a/_GFF2017進捗管理表原紙(マスタ).xlsx
+++ b/_GFF2017進捗管理表原紙(マスタ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="大綱スケジュール" sheetId="1" r:id="rId1"/>
@@ -7163,13 +7163,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>796635</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:rowOff>398317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:rowOff>398318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7178,8 +7178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11222180" y="7498772"/>
-          <a:ext cx="3654138" cy="0"/>
+          <a:off x="11759044" y="7516090"/>
+          <a:ext cx="3654138" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9013,6 +9013,852 @@
         <a:xfrm>
           <a:off x="11793681" y="8468591"/>
           <a:ext cx="3706092" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>346365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="23812500"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>259774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="24747682"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>294409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>294410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="25804091"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>294409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>294410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="26825864"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>346365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11776364" y="27813000"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>277092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="28678909"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>294409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>294410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="29631409"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="30583909"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>294409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>294410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11776363" y="31536409"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="32523545"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="33493363"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>277090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="34428545"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>346365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11776364" y="35554228"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>346365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="36610637"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>363682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>363683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="37684364"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>363681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>363682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793681" y="38740772"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>363681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>363682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="39797181"/>
+          <a:ext cx="3654138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>329046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34638</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>329047</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793682" y="40818955"/>
+          <a:ext cx="3654138" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9429,7 +10275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9870,8 +10716,8 @@
   </sheetPr>
   <dimension ref="B3:AP97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -11419,7 +12265,7 @@
         <v>42684</v>
       </c>
       <c r="H31" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I31" s="50">
         <v>42684</v>
@@ -11473,7 +12319,7 @@
         <v>42684</v>
       </c>
       <c r="H32" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I32" s="50">
         <v>42684</v>
@@ -11527,7 +12373,7 @@
         <v>42684</v>
       </c>
       <c r="H33" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I33" s="50">
         <v>42684</v>
@@ -11581,7 +12427,7 @@
         <v>42684</v>
       </c>
       <c r="H34" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I34" s="50">
         <v>42684</v>
@@ -11633,7 +12479,7 @@
         <v>42684</v>
       </c>
       <c r="H35" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I35" s="50">
         <v>42684</v>
@@ -11685,7 +12531,7 @@
         <v>42684</v>
       </c>
       <c r="H36" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I36" s="50">
         <v>42684</v>
@@ -11737,7 +12583,7 @@
         <v>42684</v>
       </c>
       <c r="H37" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I37" s="50">
         <v>42684</v>
@@ -11791,7 +12637,7 @@
         <v>42684</v>
       </c>
       <c r="H38" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I38" s="50">
         <v>42684</v>
@@ -11843,7 +12689,7 @@
         <v>42684</v>
       </c>
       <c r="H39" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I39" s="50">
         <v>42684</v>
@@ -11895,7 +12741,7 @@
         <v>42684</v>
       </c>
       <c r="H40" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I40" s="50">
         <v>42684</v>
@@ -11947,7 +12793,7 @@
         <v>42684</v>
       </c>
       <c r="H41" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I41" s="50">
         <v>42684</v>
@@ -12001,7 +12847,7 @@
         <v>42684</v>
       </c>
       <c r="H42" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I42" s="50">
         <v>42684</v>
@@ -12053,7 +12899,7 @@
         <v>42684</v>
       </c>
       <c r="H43" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I43" s="50">
         <v>42684</v>
@@ -12105,7 +12951,7 @@
         <v>42684</v>
       </c>
       <c r="H44" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I44" s="50">
         <v>42684</v>
@@ -12157,7 +13003,7 @@
         <v>42684</v>
       </c>
       <c r="H45" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I45" s="50">
         <v>42684</v>
@@ -12209,7 +13055,7 @@
         <v>42684</v>
       </c>
       <c r="H46" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I46" s="50">
         <v>42684</v>
@@ -12261,7 +13107,7 @@
         <v>42684</v>
       </c>
       <c r="H47" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I47" s="50">
         <v>42684</v>
@@ -12315,7 +13161,7 @@
         <v>42684</v>
       </c>
       <c r="H48" s="50">
-        <v>42694</v>
+        <v>42714</v>
       </c>
       <c r="I48" s="50">
         <v>42684</v>
@@ -14434,8 +15280,8 @@
   </sheetPr>
   <dimension ref="B3:AQ96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" topLeftCell="B44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -16015,7 +16861,7 @@
         <v>42684</v>
       </c>
       <c r="H31" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I31" s="50">
         <v>42684</v>
@@ -16070,7 +16916,7 @@
         <v>42684</v>
       </c>
       <c r="H32" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I32" s="50">
         <v>42684</v>
@@ -16125,7 +16971,7 @@
         <v>42684</v>
       </c>
       <c r="H33" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I33" s="50">
         <v>42684</v>
@@ -16180,7 +17026,7 @@
         <v>42684</v>
       </c>
       <c r="H34" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I34" s="50">
         <v>42684</v>
@@ -16233,7 +17079,7 @@
         <v>42684</v>
       </c>
       <c r="H35" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I35" s="50">
         <v>42684</v>
@@ -16286,7 +17132,7 @@
         <v>42684</v>
       </c>
       <c r="H36" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I36" s="50">
         <v>42684</v>
@@ -16339,7 +17185,7 @@
         <v>42684</v>
       </c>
       <c r="H37" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I37" s="50">
         <v>42684</v>
@@ -16394,7 +17240,7 @@
         <v>42684</v>
       </c>
       <c r="H38" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I38" s="50">
         <v>42684</v>
@@ -16446,7 +17292,7 @@
         <v>42684</v>
       </c>
       <c r="H39" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I39" s="50">
         <v>42684</v>
@@ -16498,7 +17344,7 @@
         <v>42684</v>
       </c>
       <c r="H40" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I40" s="50">
         <v>42684</v>
@@ -16550,7 +17396,7 @@
         <v>42684</v>
       </c>
       <c r="H41" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I41" s="50">
         <v>42684</v>
@@ -16604,7 +17450,7 @@
         <v>42684</v>
       </c>
       <c r="H42" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I42" s="50">
         <v>42684</v>
@@ -16656,7 +17502,7 @@
         <v>42684</v>
       </c>
       <c r="H43" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I43" s="50">
         <v>42684</v>
@@ -16708,7 +17554,7 @@
         <v>42684</v>
       </c>
       <c r="H44" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I44" s="50">
         <v>42684</v>
@@ -16760,7 +17606,7 @@
         <v>42684</v>
       </c>
       <c r="H45" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I45" s="50">
         <v>42684</v>
@@ -16812,7 +17658,7 @@
         <v>42684</v>
       </c>
       <c r="H46" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I46" s="50">
         <v>42684</v>
@@ -16864,7 +17710,7 @@
         <v>42684</v>
       </c>
       <c r="H47" s="50">
-        <v>42699</v>
+        <v>42714</v>
       </c>
       <c r="I47" s="50">
         <v>42684</v>
@@ -16918,7 +17764,7 @@
         <v>42684</v>
       </c>
       <c r="H48" s="50">
-        <v>42694</v>
+        <v>42714</v>
       </c>
       <c r="I48" s="50">
         <v>42684</v>
@@ -19019,7 +19865,7 @@
   </sheetPr>
   <dimension ref="B3:AQ94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
